--- a/OnBoard/output/trust/catch/Catch_Trust_45BIS.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_45BIS.xlsx
@@ -422,12 +422,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -504,12 +504,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -545,12 +545,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,12 +627,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -832,12 +832,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -955,12 +955,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1488,12 +1488,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1570,12 +1570,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>45BIS</t>
+          <t>45bis</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
